--- a/biology/Botanique/Caudalie_(entreprise)/Caudalie_(entreprise).xlsx
+++ b/biology/Botanique/Caudalie_(entreprise)/Caudalie_(entreprise).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Caudalie est une entreprise française de cosmétiques spécialisée dans la vinothérapie. Elle s'est par la suite diversifiée dans les spas et les séjours à base de vinothérapie[3]
+Caudalie est une entreprise française de cosmétiques spécialisée dans la vinothérapie. Elle s'est par la suite diversifiée dans les spas et les séjours à base de vinothérapie
 </t>
         </is>
       </c>
@@ -512,22 +524,24 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'entreprise Caudalie tire son nom de l'unité de mesure homonyme, la caudalie, utilisée en œnologie, qui désigne l’unité de mesure de la durée en bouche des arômes du vin après dégustation.
-En 1993, lors des vendanges du Château Smith Haut Lafitte, Bertrand et Mathilde Thomas rencontrent le professeur Joseph Vercauteren[4], spécialiste des polyphénols, et son équipe de chercheurs. Le professeur Vercauteren leur fait alors part d'une de ses découvertes, selon laquelle les OPC (oligomères-procyanidoliques) extraits des pépins de raisin, sont plus efficaces que la vitamine E contre les radicaux libres[réf. nécessaire].
-En 1995, Mathilde et Bertrand Thomas lancent alors Caudalie en développant une gamme de trois soins contenant des polyphénols de pépins de raisin stabilisés et aux vertus anti-âge[5].
+En 1993, lors des vendanges du Château Smith Haut Lafitte, Bertrand et Mathilde Thomas rencontrent le professeur Joseph Vercauteren, spécialiste des polyphénols, et son équipe de chercheurs. Le professeur Vercauteren leur fait alors part d'une de ses découvertes, selon laquelle les OPC (oligomères-procyanidoliques) extraits des pépins de raisin, sont plus efficaces que la vitamine E contre les radicaux libres[réf. nécessaire].
+En 1995, Mathilde et Bertrand Thomas lancent alors Caudalie en développant une gamme de trois soins contenant des polyphénols de pépins de raisin stabilisés et aux vertus anti-âge.
 En 1997, Caudalie lance "L'eau de Beauté".
-En septembre 1999, sur les terres du Château Smith Haut Lafitte, Mathilde et Bertrand Thomas créent le premier « Spa Vinothérapie »[6], un concept reposant sur l'association d'une eau de source chaude et d'extraits de la vigne et du raisin[7].
+En septembre 1999, sur les terres du Château Smith Haut Lafitte, Mathilde et Bertrand Thomas créent le premier « Spa Vinothérapie », un concept reposant sur l'association d'une eau de source chaude et d'extraits de la vigne et du raisin.
 En 2001, Caudalie devient la marque pionnière du resvératrol. Un cep de vigne peut vivre 100 ans, car la vigne produit naturellement du resvératrol pour se défendre et se régénérer. Caudalie a donc été la première marque à breveter cet actif naturel aux propriétés raffermissantes et anti-âge.
-En 2009, Caudalie lance « Premier Cru », une ligne de soins premium anti-âge rassemblant tous les brevets de la marque[7].
-Début 2013, elle inaugure son premier magasin au Brésil[8]. Elle participe au Salon européen des ingrédients cosmétiques, qui se tient en France cette année là[9].
-En 2015, elle dépose un nouveau brevet associant le resvératrol à l'acide hyaluronique. C'est ainsi qu'est lancée la nouvelle gamme anti-âge fermeté « Resvératrol Lift »[10].
+En 2009, Caudalie lance « Premier Cru », une ligne de soins premium anti-âge rassemblant tous les brevets de la marque.
+Début 2013, elle inaugure son premier magasin au Brésil. Elle participe au Salon européen des ingrédients cosmétiques, qui se tient en France cette année là.
+En 2015, elle dépose un nouveau brevet associant le resvératrol à l'acide hyaluronique. C'est ainsi qu'est lancée la nouvelle gamme anti-âge fermeté « Resvératrol Lift ».
 En 2017, elle ouvre à New York la maison Caudalie en plein cœur du Meatpacking District, au 823 Washington Street.
-En 2018, elle ouvre son nouveau laboratoire de formulation naturelle ainsi qu'un nouveau centre logistique éco-conçu à Gidy, près d'Orléans[11].
-En 2018, Caudalie lance une nouvelle gamme de soin pour les peaux mixtes Vinopure et reçoit le prix d'excellence de la Beauté Marie Claire en 2019[12].
+En 2018, elle ouvre son nouveau laboratoire de formulation naturelle ainsi qu'un nouveau centre logistique éco-conçu à Gidy, près d'Orléans.
+En 2018, Caudalie lance une nouvelle gamme de soin pour les peaux mixtes Vinopure et reçoit le prix d'excellence de la Beauté Marie Claire en 2019.
 En 2018, Dr David Sinclair de Harvard Medical School à Boston, véritable gourou de la longévité, accepte de travailler conjointement avec Caudalie pour breveter une nouvelle molécule contre le vieillissement cutané. Ce nouveau brevet Vinergy® se trouve dans le Sérum Premier Cru.
-En 2019, Caudalie lance une nouvelle génération de soins solaires éco-responsables et soutient Coral Guardian pour la plantation de coraux en Indonésie[13].
+En 2019, Caudalie lance une nouvelle génération de soins solaires éco-responsables et soutient Coral Guardian pour la plantation de coraux en Indonésie.
 En 2020, Caudalie en partenariat avec la Harvard Medical School, donne naissance à un brevet, associant le Resvératrol et l’acide hyaluronique à un booster de collagène vegan.
 </t>
         </is>
@@ -557,9 +571,11 @@
           <t>Économie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caudalie est une entreprise familiale 100 % indépendante. En 2018, Mathilde Thomas reçoit la légion d'honneur des mains du Premier Ministre pour son parcours d'entrepreneur et sa démarche engagée[14].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caudalie est une entreprise familiale 100 % indépendante. En 2018, Mathilde Thomas reçoit la légion d'honneur des mains du Premier Ministre pour son parcours d'entrepreneur et sa démarche engagée.
 </t>
         </is>
       </c>
@@ -588,10 +604,12 @@
           <t>Laboratoire et recherche</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caudalie a son propre laboratoire de formulation naturelle situé à Gidy et travaille en collaboration avec la Harvard Medical School et le docteur David Sinclair pour le dépôt de brevet contre le vieillissement cutané[15].
-L'entreprise suit une charte de formulation stricte, la « Cosm-éthique » et bannit notamment l'utilisation de phtalates, du phénoxyéthanol, des huiles minérales, des parabènes, des sulfates, des colorants de synthèse et des ingrédients d'origine animale[16].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caudalie a son propre laboratoire de formulation naturelle situé à Gidy et travaille en collaboration avec la Harvard Medical School et le docteur David Sinclair pour le dépôt de brevet contre le vieillissement cutané.
+L'entreprise suit une charte de formulation stricte, la « Cosm-éthique » et bannit notamment l'utilisation de phtalates, du phénoxyéthanol, des huiles minérales, des parabènes, des sulfates, des colorants de synthèse et des ingrédients d'origine animale.
 </t>
         </is>
       </c>
@@ -620,13 +638,15 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les produits Caudalie sont distribués dans plus de 27 pays[17] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les produits Caudalie sont distribués dans plus de 27 pays :
 en Europe, dans les pharmacies ;
 en Amérique, chez Sephora et Blue Mercury entre autres ;
 en Asie, chez Sephora et en grands magasins.
-La marque est distribuée dans plus 40 boutiques-spas, 11 000 pharmacies et 1000 magasins de la chaîne Sephora à travers le monde[18],[16].
+La marque est distribuée dans plus 40 boutiques-spas, 11 000 pharmacies et 1000 magasins de la chaîne Sephora à travers le monde,.
 </t>
         </is>
       </c>
@@ -655,9 +675,11 @@
           <t>Engagement écologique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis 2012, Caudalie est membre de l'association mondiale 1% for the Planet et reverse ainsi 1 % de son chiffre d'affaires mondial à des associations pour la protection de l'environnement[19],[20].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 2012, Caudalie est membre de l'association mondiale 1% for the Planet et reverse ainsi 1 % de son chiffre d'affaires mondial à des associations pour la protection de l'environnement,.
 </t>
         </is>
       </c>
